--- a/FALL 19/MAT 101/Fall2019_MAT101_Sec4_CoPo.xlsx
+++ b/FALL 19/MAT 101/Fall2019_MAT101_Sec4_CoPo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\FALL 19\MAT 101\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14251377-1A6C-4575-819C-0942CBECCE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="744" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GradeSheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">CO_PO_AttainmentAnalysis!$A$1:$BR$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GradeSheet!$A$1:$N$42</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -704,7 +698,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
@@ -3315,10 +3309,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B24764D5-13D2-4D24-9A61-5BE88599A414}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0C890624-18BF-4848-94A4-EC4D34C1E1C4}"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{5578E141-087E-4426-9C67-6B2B636A48F7}"/>
-    <cellStyle name="Normal 4 2" xfId="3" xr:uid="{61903ACD-3C5B-4033-9493-672F9C937E68}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 4 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3334,11 +3328,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3346,9 +3338,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4878157707217247E-2"/>
+          <c:x val="5.4878157707217254E-2"/>
           <c:y val="4.2622950819672129E-2"/>
-          <c:w val="0.91057091306790094"/>
+          <c:w val="0.91057091306790072"/>
           <c:h val="0.84262295081967264"/>
         </c:manualLayout>
       </c:layout>
@@ -3440,10 +3432,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3454,7 +3446,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -3469,24 +3461,14 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="245224423"/>
-        <c:axId val="1844206332"/>
+        <c:axId val="54427648"/>
+        <c:axId val="54429184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245224423"/>
+        <c:axId val="54427648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -3507,7 +3489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844206332"/>
+        <c:crossAx val="54429184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3515,11 +3497,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844206332"/>
+        <c:axId val="54429184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3554,7 +3535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245224423"/>
+        <c:crossAx val="54427648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,18 +3551,16 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3604,9 +3583,8 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3697,10 +3675,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3711,7 +3689,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -3726,17 +3704,8 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1208295562"/>
-        <c:axId val="1355355731"/>
+        <c:axId val="68547328"/>
+        <c:axId val="68548864"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3773,14 +3742,8 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3861,10 +3824,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3875,7 +3838,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -3890,24 +3853,14 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="611236882"/>
-        <c:axId val="254411012"/>
+        <c:axId val="54854016"/>
+        <c:axId val="54855552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1208295562"/>
+        <c:axId val="68547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -3928,7 +3881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355355731"/>
+        <c:crossAx val="68548864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3936,11 +3889,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1355355731"/>
+        <c:axId val="68548864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3972,7 +3924,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -3998,16 +3950,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208295562"/>
+        <c:crossAx val="68547328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="611236882"/>
+        <c:axId val="54854016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4028,7 +3979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254411012"/>
+        <c:crossAx val="54855552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,13 +3987,12 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254411012"/>
+        <c:axId val="54855552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4086,11 +4036,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611236882"/>
+        <c:crossAx val="54854016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.04"/>
+        <c:minorUnit val="4.0000000000000015E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4109,18 +4059,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4143,9 +4091,8 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4218,13 +4165,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4250,7 +4197,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -4265,17 +4212,8 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="626323844"/>
-        <c:axId val="1825695187"/>
+        <c:axId val="54911744"/>
+        <c:axId val="54913280"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -4341,19 +4279,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.27955246913580251</c:v>
+                  <c:v>0.28001543209876545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27089120370370368</c:v>
+                  <c:v>0.27158564814814812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27233796296296292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28460648148148149</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27233796296296292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4379,7 +4317,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -4394,24 +4332,14 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="504371011"/>
-        <c:axId val="370070126"/>
+        <c:axId val="54915456"/>
+        <c:axId val="54916992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="626323844"/>
+        <c:axId val="54911744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4432,7 +4360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1825695187"/>
+        <c:crossAx val="54913280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,11 +4368,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1825695187"/>
+        <c:axId val="54913280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4476,7 +4403,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4502,16 +4429,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626323844"/>
+        <c:crossAx val="54911744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504371011"/>
+        <c:axId val="54915456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4532,7 +4458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370070126"/>
+        <c:crossAx val="54916992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4540,13 +4466,12 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370070126"/>
+        <c:axId val="54916992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4590,11 +4515,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504371011"/>
+        <c:crossAx val="54915456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.04"/>
+        <c:minorUnit val="4.0000000000000015E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4613,18 +4538,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4647,9 +4570,8 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4718,7 +4640,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -4733,17 +4655,8 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="543151166"/>
-        <c:axId val="2027027412"/>
+        <c:axId val="68600576"/>
+        <c:axId val="68602112"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -4780,14 +4693,8 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4832,7 +4739,7 @@
                   <c:v>0.26944444444444449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27233796296296292</c:v>
+                  <c:v>0.2737268518518518</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4846,7 +4753,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -4861,24 +4768,14 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1301093934"/>
-        <c:axId val="371236440"/>
+        <c:axId val="68612480"/>
+        <c:axId val="68614016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543151166"/>
+        <c:axId val="68600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4899,7 +4796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2027027412"/>
+        <c:crossAx val="68602112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4907,11 +4804,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2027027412"/>
+        <c:axId val="68602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4943,7 +4839,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4969,16 +4865,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543151166"/>
+        <c:crossAx val="68600576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1301093934"/>
+        <c:axId val="68612480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -4999,7 +4894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371236440"/>
+        <c:crossAx val="68614016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5007,13 +4902,12 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371236440"/>
+        <c:axId val="68614016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5057,11 +4951,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1301093934"/>
+        <c:crossAx val="68612480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.04"/>
+        <c:minorUnit val="4.0000000000000015E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -5080,7 +4974,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5101,7 +4995,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5137,7 +5031,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5168,7 +5062,7 @@
         <xdr:cNvPr id="3" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5199,7 +5093,7 @@
         <xdr:cNvPr id="4" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5230,7 +5124,7 @@
         <xdr:cNvPr id="5" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5238,7 +5132,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="832312" y="13717385"/>
+          <a:off x="882361" y="13738514"/>
           <a:ext cx="4248150" cy="38100"/>
           <a:chOff x="3221925" y="3760949"/>
           <a:chExt cx="4248150" cy="38100"/>
@@ -5249,7 +5143,7 @@
           <xdr:cNvPr id="6" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5268,7 +5162,7 @@
             <xdr:cNvPr id="7" name="Shape 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5311,7 +5205,7 @@
             <xdr:cNvPr id="8" name="Shape 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5387,7 +5281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5439,7 +5333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5633,48 +5527,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="8.375" customWidth="1"/>
-    <col min="15" max="15" width="7.25" customWidth="1"/>
-    <col min="16" max="16" width="17.75" customWidth="1"/>
-    <col min="17" max="17" width="9.75" customWidth="1"/>
-    <col min="18" max="19" width="9.75" style="240" customWidth="1"/>
-    <col min="20" max="20" width="16.75" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="22" max="23" width="9.75" customWidth="1"/>
-    <col min="24" max="24" width="15.75" customWidth="1"/>
-    <col min="25" max="25" width="32.75" customWidth="1"/>
-    <col min="26" max="28" width="9.25" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" style="240" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="23" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" customWidth="1"/>
+    <col min="26" max="28" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
@@ -6488,7 +6382,7 @@
       </c>
       <c r="D15" s="57">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="143">
         <f>IF($P$9=0,0,(P15/GradeSheet!$P$9)*GradeSheet!$C$30)</f>
@@ -6516,20 +6410,20 @@
       </c>
       <c r="K15" s="146">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L15" s="147">
         <f t="shared" si="5"/>
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="M15" s="148" t="str">
         <f>VLOOKUP(K15,GradingPolicy!$B$2:$C$11,2)</f>
-        <v>F (Fail)</v>
+        <v>D (Plain)</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="246">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="246">
         <v>0</v>
@@ -7104,7 +6998,7 @@
       </c>
       <c r="D22" s="57">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="143">
         <f>IF($P$9=0,0,(P22/GradeSheet!$P$9)*GradeSheet!$C$30)</f>
@@ -7112,7 +7006,7 @@
       </c>
       <c r="F22" s="144">
         <f>ROUNDUP(((AVERAGE(LARGE(Q22:S22,1),LARGE(Q22:S22,2)))/GradeSheet!$Q$9)*C$31,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="144">
         <f t="shared" si="3"/>
@@ -7132,23 +7026,23 @@
       </c>
       <c r="K22" s="146">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L22" s="147">
         <f t="shared" si="5"/>
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="148" t="str">
         <f>VLOOKUP(K22,GradingPolicy!$B$2:$C$11,2)</f>
-        <v>F (Fail)</v>
+        <v>D (Plain)</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="246">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="246">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R22" s="246">
         <v>4</v>
@@ -7640,11 +7534,11 @@
       </c>
       <c r="P30" s="54">
         <f t="shared" ref="P30:W30" si="9">AVERAGE(P10:P25)</f>
-        <v>5.5</v>
+        <v>5.6875</v>
       </c>
       <c r="Q30" s="54">
         <f t="shared" si="9"/>
-        <v>4.21875</v>
+        <v>4.34375</v>
       </c>
       <c r="R30" s="54">
         <f t="shared" si="9"/>
@@ -7963,7 +7857,7 @@
       </c>
       <c r="H37" s="55">
         <f>COUNTIF(M10:M25, "D (Plain)")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8000,7 +7894,7 @@
       </c>
       <c r="H38" s="55">
         <f>COUNTIF(M10:M25, "F (Fail)")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -14936,23 +14830,23 @@
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="23" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="23" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
@@ -21308,37 +21202,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AN7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="AU21" sqref="AU21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="22" width="7.375" customWidth="1"/>
-    <col min="23" max="23" width="7.75" customWidth="1"/>
-    <col min="24" max="27" width="7.375" customWidth="1"/>
-    <col min="28" max="29" width="7.75" customWidth="1"/>
-    <col min="30" max="33" width="7.375" customWidth="1"/>
-    <col min="34" max="34" width="7.625" customWidth="1"/>
-    <col min="35" max="35" width="7.75" customWidth="1"/>
-    <col min="36" max="39" width="7.375" customWidth="1"/>
-    <col min="40" max="42" width="9.25" customWidth="1"/>
-    <col min="43" max="45" width="10.375" customWidth="1"/>
-    <col min="46" max="46" width="8.75" customWidth="1"/>
-    <col min="47" max="47" width="10.25" customWidth="1"/>
-    <col min="48" max="58" width="9.25" customWidth="1"/>
-    <col min="59" max="59" width="9.75" customWidth="1"/>
-    <col min="60" max="70" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="22" width="7.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="29" width="7.7109375" customWidth="1"/>
+    <col min="30" max="33" width="7.42578125" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" customWidth="1"/>
+    <col min="36" max="39" width="7.42578125" customWidth="1"/>
+    <col min="40" max="42" width="9.28515625" customWidth="1"/>
+    <col min="43" max="45" width="10.42578125" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" customWidth="1"/>
+    <col min="48" max="58" width="9.28515625" customWidth="1"/>
+    <col min="59" max="59" width="9.7109375" customWidth="1"/>
+    <col min="60" max="70" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="13.8">
+    <row r="1" spans="1:70">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="271"/>
@@ -21464,7 +21358,7 @@
       <c r="BQ2" s="3"/>
       <c r="BR2" s="3"/>
     </row>
-    <row r="3" spans="1:70" s="169" customFormat="1" ht="20.399999999999999">
+    <row r="3" spans="1:70" s="169" customFormat="1" ht="20.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="170"/>
@@ -21530,7 +21424,7 @@
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
     </row>
-    <row r="4" spans="1:70" s="169" customFormat="1" ht="20.399999999999999">
+    <row r="4" spans="1:70" s="169" customFormat="1" ht="20.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="170"/>
@@ -21596,7 +21490,7 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
     </row>
-    <row r="5" spans="1:70" s="169" customFormat="1" ht="13.8">
+    <row r="5" spans="1:70" s="169" customFormat="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="170"/>
@@ -21662,7 +21556,7 @@
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
     </row>
-    <row r="6" spans="1:70" s="169" customFormat="1" ht="14.4" thickBot="1">
+    <row r="6" spans="1:70" s="169" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="170"/>
@@ -21728,7 +21622,7 @@
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
     </row>
-    <row r="7" spans="1:70" s="169" customFormat="1" ht="14.4" thickBot="1">
+    <row r="7" spans="1:70" s="169" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="170"/>
@@ -21796,7 +21690,7 @@
       <c r="BQ7" s="3"/>
       <c r="BR7" s="3"/>
     </row>
-    <row r="8" spans="1:70" ht="14.4" thickBot="1">
+    <row r="8" spans="1:70" ht="15.75" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9" t="s">
@@ -21904,7 +21798,7 @@
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
     </row>
-    <row r="9" spans="1:70" ht="13.8">
+    <row r="9" spans="1:70">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="17" t="s">
@@ -21970,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="226">
         <v>0</v>
@@ -22008,7 +21902,7 @@
       <c r="BO9" s="3"/>
       <c r="BP9" s="3"/>
     </row>
-    <row r="10" spans="1:70" ht="13.8">
+    <row r="10" spans="1:70">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="20" t="s">
@@ -22112,7 +22006,7 @@
       <c r="BO10" s="3"/>
       <c r="BP10" s="3"/>
     </row>
-    <row r="11" spans="1:70" ht="13.8">
+    <row r="11" spans="1:70">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="24" t="s">
@@ -22175,13 +22069,13 @@
         <v>1</v>
       </c>
       <c r="AV11" s="226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="226">
         <v>0</v>
@@ -22216,7 +22110,7 @@
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
     </row>
-    <row r="12" spans="1:70" ht="14.4" thickBot="1">
+    <row r="12" spans="1:70" ht="15.75" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="24" t="s">
@@ -22320,7 +22214,7 @@
       <c r="BO12" s="3"/>
       <c r="BP12" s="3"/>
     </row>
-    <row r="13" spans="1:70" ht="14.4" thickBot="1">
+    <row r="13" spans="1:70" ht="15.75" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="9" t="s">
@@ -22436,7 +22330,7 @@
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
     </row>
-    <row r="14" spans="1:70" ht="14.4" thickBot="1">
+    <row r="14" spans="1:70" ht="15.75" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="J14" s="3"/>
@@ -22525,7 +22419,7 @@
       <c r="BO14" s="3"/>
       <c r="BP14" s="3"/>
     </row>
-    <row r="15" spans="1:70" ht="14.4" thickBot="1">
+    <row r="15" spans="1:70" ht="15.75" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -22583,15 +22477,15 @@
       </c>
       <c r="AV15" s="223">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="223">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="223">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="223">
         <f t="shared" si="1"/>
@@ -22633,7 +22527,7 @@
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
     </row>
-    <row r="16" spans="1:70" ht="14.4" thickBot="1">
+    <row r="16" spans="1:70" ht="15.75" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -22692,7 +22586,7 @@
       <c r="BQ16" s="3"/>
       <c r="BR16" s="3"/>
     </row>
-    <row r="17" spans="1:70" ht="14.4" thickBot="1">
+    <row r="17" spans="1:70" thickBot="1">
       <c r="A17" s="279" t="str">
         <f>CONCATENATE("Course Outcome (CO) Attainment Analysis of ",GradeSheet!$H$2, " [",GradeSheet!$H$3, "] ", "(Section ",GradeSheet!$L$2, ") ", "[Semester - ",GradeSheet!$L$3,"]" )</f>
         <v>Course Outcome (CO) Attainment Analysis of MAT 101 [Differential and Integral Calculus] (Section 4) [Semester - Fall 2019]</v>
@@ -22771,7 +22665,7 @@
       <c r="BQ17" s="266"/>
       <c r="BR17" s="267"/>
     </row>
-    <row r="18" spans="1:70" ht="14.4" thickBot="1">
+    <row r="18" spans="1:70" thickBot="1">
       <c r="A18" s="280"/>
       <c r="B18" s="255"/>
       <c r="C18" s="253"/>
@@ -22864,7 +22758,7 @@
       <c r="BQ18" s="260"/>
       <c r="BR18" s="261"/>
     </row>
-    <row r="19" spans="1:70" ht="14.4" thickBot="1">
+    <row r="19" spans="1:70" ht="15.75" thickBot="1">
       <c r="A19" s="280"/>
       <c r="B19" s="253"/>
       <c r="C19" s="253"/>
@@ -23068,7 +22962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:70" ht="14.4" thickBot="1">
+    <row r="20" spans="1:70" ht="15.75" thickBot="1">
       <c r="A20" s="155" t="s">
         <v>69</v>
       </c>
@@ -23276,7 +23170,7 @@
       <c r="BQ20" s="257"/>
       <c r="BR20" s="258"/>
     </row>
-    <row r="21" spans="1:70" ht="16.2" thickBot="1">
+    <row r="21" spans="1:70" ht="16.5" thickBot="1">
       <c r="A21" s="154">
         <v>1</v>
       </c>
@@ -23361,27 +23255,27 @@
         <v>0</v>
       </c>
       <c r="AB21" s="204">
-        <f>SUM(V21,D21,J21,P21)</f>
+        <f t="shared" ref="AB21:AG21" si="6">SUM(V21,D21,J21,P21)</f>
         <v>17.5</v>
       </c>
       <c r="AC21" s="205">
-        <f>SUM(W21,E21,K21,Q21)</f>
+        <f t="shared" si="6"/>
         <v>15.8</v>
       </c>
       <c r="AD21" s="205">
-        <f>SUM(X21,F21,L21,R21)</f>
+        <f t="shared" si="6"/>
         <v>16.600000000000001</v>
       </c>
       <c r="AE21" s="205">
-        <f>SUM(Y21,G21,M21,S21)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF21" s="205">
-        <f>SUM(Z21,H21,N21,T21)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG21" s="206">
-        <f>SUM(AA21,I21,O21,U21)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH21" s="208">
@@ -23393,19 +23287,19 @@
         <v>0.58518518518518525</v>
       </c>
       <c r="AJ21" s="209">
-        <f t="shared" ref="AJ21:AM36" si="6">IF(AD$20 = 0, 0, AD21/AD$20)</f>
+        <f t="shared" ref="AJ21:AM36" si="7">IF(AD$20 = 0, 0, AD21/AD$20)</f>
         <v>0.61481481481481481</v>
       </c>
       <c r="AK21" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL21" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM21" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN21" s="212">
@@ -23443,15 +23337,15 @@
       </c>
       <c r="AW21" s="209">
         <f t="array" ref="AW21">IF($AV$15=0,0,MMULT($AH21:$AM21, AV$9:AV$14)/$AV$15)</f>
-        <v>0.61481481481481481</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="209">
         <f t="array" ref="AX21">IF($AW$15=0,0,MMULT($AH21:$AM21, AW$9:AW$14)/$AW$15)</f>
-        <v>0.64394586894586903</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="209">
         <f t="array" ref="AY21">IF($AX$15=0,0,MMULT($AH21:$AM21, AX$9:AX$14)/$AX$15)</f>
-        <v>0.61481481481481481</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="209">
         <f t="array" ref="AZ21">IF($AY$15=0,0,MMULT($AH21:$AM21, AY$9:AY$14)/$AY$15)</f>
@@ -23530,7 +23424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:70" ht="16.2" thickBot="1">
+    <row r="22" spans="1:70" ht="16.5" thickBot="1">
       <c r="A22" s="153">
         <v>2</v>
       </c>
@@ -23615,51 +23509,51 @@
         <v>0</v>
       </c>
       <c r="AB22" s="204">
-        <f t="shared" ref="AB22:AB36" si="7">SUM(V22,D22,J22,P22)</f>
+        <f t="shared" ref="AB22:AB36" si="8">SUM(V22,D22,J22,P22)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="205">
-        <f t="shared" ref="AC22:AC36" si="8">SUM(W22,E22,K22,Q22)</f>
+        <f t="shared" ref="AC22:AC36" si="9">SUM(W22,E22,K22,Q22)</f>
         <v>0</v>
       </c>
       <c r="AD22" s="205">
-        <f t="shared" ref="AD22:AD36" si="9">SUM(X22,F22,L22,R22)</f>
+        <f t="shared" ref="AD22:AD36" si="10">SUM(X22,F22,L22,R22)</f>
         <v>0</v>
       </c>
       <c r="AE22" s="205">
-        <f t="shared" ref="AE22:AE36" si="10">SUM(Y22,G22,M22,S22)</f>
+        <f t="shared" ref="AE22:AE36" si="11">SUM(Y22,G22,M22,S22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="205">
-        <f t="shared" ref="AF22:AF36" si="11">SUM(Z22,H22,N22,T22)</f>
+        <f t="shared" ref="AF22:AF36" si="12">SUM(Z22,H22,N22,T22)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="206">
-        <f t="shared" ref="AG22:AG36" si="12">SUM(AA22,I22,O22,U22)</f>
+        <f t="shared" ref="AG22:AG36" si="13">SUM(AA22,I22,O22,U22)</f>
         <v>0</v>
       </c>
       <c r="AH22" s="208">
-        <f t="shared" ref="AH22:AH36" si="13">IF(AB$20 = 0, 0, AB22/AB$20)</f>
+        <f t="shared" ref="AH22:AH36" si="14">IF(AB$20 = 0, 0, AB22/AB$20)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="209">
-        <f t="shared" ref="AI22:AI36" si="14">IF(AC$20 = 0, 0, AC22/AC$20)</f>
+        <f t="shared" ref="AI22:AI36" si="15">IF(AC$20 = 0, 0, AC22/AC$20)</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK22" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL22" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM22" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN22" s="215">
@@ -23784,7 +23678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:70" ht="16.2" thickBot="1">
+    <row r="23" spans="1:70" ht="16.5" thickBot="1">
       <c r="A23" s="154">
         <v>3</v>
       </c>
@@ -23869,51 +23763,51 @@
         <v>0</v>
       </c>
       <c r="AB23" s="204">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="209">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="209">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="205">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="209">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="209">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AK23" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL23" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM23" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN23" s="215">
@@ -24038,7 +23932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:70" ht="16.2" thickBot="1">
+    <row r="24" spans="1:70" ht="16.5" thickBot="1">
       <c r="A24" s="153">
         <v>4</v>
       </c>
@@ -24123,51 +24017,51 @@
         <v>0</v>
       </c>
       <c r="AB24" s="204">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="209">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="209">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="205">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="209">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="209">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AK24" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL24" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM24" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN24" s="215">
@@ -24292,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:70" ht="16.2" thickBot="1">
+    <row r="25" spans="1:70" ht="16.5" thickBot="1">
       <c r="A25" s="154">
         <v>5</v>
       </c>
@@ -24377,51 +24271,51 @@
         <v>0</v>
       </c>
       <c r="AB25" s="204">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AC25" s="205">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="205">
+        <f t="shared" si="10"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="AE25" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="208">
+        <f t="shared" si="14"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AI25" s="209">
+        <f t="shared" si="15"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AJ25" s="209">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AC25" s="205">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AD25" s="205">
-        <f t="shared" si="9"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="AE25" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="208">
-        <f t="shared" si="13"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="AI25" s="209">
-        <f t="shared" si="14"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AJ25" s="209">
-        <f t="shared" si="6"/>
         <v>7.7777777777777765E-2</v>
       </c>
       <c r="AK25" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL25" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM25" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN25" s="215">
@@ -24459,15 +24353,15 @@
       </c>
       <c r="AW25" s="128">
         <f t="array" ref="AW25">IF($AV$15=0,0,MMULT($AH25:$AM25, AV$9:AV$14)/$AV$15)</f>
-        <v>7.7777777777777765E-2</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="128">
         <f t="array" ref="AX25">IF($AW$15=0,0,MMULT($AH25:$AM25, AW$9:AW$14)/$AW$15)</f>
-        <v>0.11581196581196582</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="128">
         <f t="array" ref="AY25">IF($AX$15=0,0,MMULT($AH25:$AM25, AX$9:AX$14)/$AX$15)</f>
-        <v>7.7777777777777765E-2</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="128">
         <f t="array" ref="AZ25">IF($AY$15=0,0,MMULT($AH25:$AM25, AY$9:AY$14)/$AY$15)</f>
@@ -24546,7 +24440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:70" ht="16.2" thickBot="1">
+    <row r="26" spans="1:70" ht="16.5" thickBot="1">
       <c r="A26" s="153">
         <v>6</v>
       </c>
@@ -24631,51 +24525,51 @@
         <v>0</v>
       </c>
       <c r="AB26" s="204">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC26" s="205">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AD26" s="205">
+        <f t="shared" si="10"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AE26" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="208">
+        <f t="shared" si="14"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AI26" s="209">
+        <f t="shared" si="15"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="AJ26" s="209">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AC26" s="205">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="AD26" s="205">
-        <f t="shared" si="9"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="AE26" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="208">
-        <f t="shared" si="13"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AI26" s="209">
-        <f t="shared" si="14"/>
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="AJ26" s="209">
-        <f t="shared" si="6"/>
         <v>0.12592592592592594</v>
       </c>
       <c r="AK26" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL26" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM26" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN26" s="215">
@@ -24713,15 +24607,15 @@
       </c>
       <c r="AW26" s="128">
         <f t="array" ref="AW26">IF($AV$15=0,0,MMULT($AH26:$AM26, AV$9:AV$14)/$AV$15)</f>
-        <v>0.12592592592592594</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="128">
         <f t="array" ref="AX26">IF($AW$15=0,0,MMULT($AH26:$AM26, AW$9:AW$14)/$AW$15)</f>
-        <v>0.25527065527065529</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="128">
         <f t="array" ref="AY26">IF($AX$15=0,0,MMULT($AH26:$AM26, AX$9:AX$14)/$AX$15)</f>
-        <v>0.12592592592592594</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="128">
         <f t="array" ref="AZ26">IF($AY$15=0,0,MMULT($AH26:$AM26, AY$9:AY$14)/$AY$15)</f>
@@ -24885,51 +24779,51 @@
         <v>0</v>
       </c>
       <c r="AB27" s="204">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AC27" s="205">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AD27" s="205">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="AE27" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="208">
+        <f t="shared" si="14"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AI27" s="209">
+        <f t="shared" si="15"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AJ27" s="209">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="AC27" s="205">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="AD27" s="205">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="AE27" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="208">
-        <f t="shared" si="13"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="AI27" s="209">
-        <f t="shared" si="14"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AJ27" s="209">
-        <f t="shared" si="6"/>
         <v>0.51851851851851849</v>
       </c>
       <c r="AK27" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL27" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM27" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN27" s="215">
@@ -24967,15 +24861,15 @@
       </c>
       <c r="AW27" s="128">
         <f t="array" ref="AW27">IF($AV$15=0,0,MMULT($AH27:$AM27, AV$9:AV$14)/$AV$15)</f>
-        <v>0.51851851851851849</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="128">
         <f t="array" ref="AX27">IF($AW$15=0,0,MMULT($AH27:$AM27, AW$9:AW$14)/$AW$15)</f>
-        <v>0.49002849002849003</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="128">
         <f t="array" ref="AY27">IF($AX$15=0,0,MMULT($AH27:$AM27, AX$9:AX$14)/$AX$15)</f>
-        <v>0.51851851851851849</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="128">
         <f t="array" ref="AZ27">IF($AY$15=0,0,MMULT($AH27:$AM27, AY$9:AY$14)/$AY$15)</f>
@@ -25139,51 +25033,51 @@
         <v>0</v>
       </c>
       <c r="AB28" s="204">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="209">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="209">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="205">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="209">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="209">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AK28" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL28" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM28" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN28" s="215">
@@ -25393,51 +25287,51 @@
         <v>0</v>
       </c>
       <c r="AB29" s="204">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC29" s="205">
+        <f t="shared" si="9"/>
+        <v>15.5</v>
+      </c>
+      <c r="AD29" s="205">
+        <f t="shared" si="10"/>
+        <v>9.35</v>
+      </c>
+      <c r="AE29" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="208">
+        <f t="shared" si="14"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AI29" s="209">
+        <f t="shared" si="15"/>
+        <v>0.57407407407407407</v>
+      </c>
+      <c r="AJ29" s="209">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AC29" s="205">
-        <f t="shared" si="8"/>
-        <v>15.5</v>
-      </c>
-      <c r="AD29" s="205">
-        <f t="shared" si="9"/>
-        <v>9.35</v>
-      </c>
-      <c r="AE29" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="208">
-        <f t="shared" si="13"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AI29" s="209">
-        <f t="shared" si="14"/>
-        <v>0.57407407407407407</v>
-      </c>
-      <c r="AJ29" s="209">
-        <f t="shared" si="6"/>
         <v>0.34629629629629627</v>
       </c>
       <c r="AK29" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL29" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM29" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN29" s="215">
@@ -25475,15 +25369,15 @@
       </c>
       <c r="AW29" s="128">
         <f t="array" ref="AW29">IF($AV$15=0,0,MMULT($AH29:$AM29, AV$9:AV$14)/$AV$15)</f>
-        <v>0.34629629629629627</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="128">
         <f t="array" ref="AX29">IF($AW$15=0,0,MMULT($AH29:$AM29, AW$9:AW$14)/$AW$15)</f>
-        <v>0.36545584045584045</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="128">
         <f t="array" ref="AY29">IF($AX$15=0,0,MMULT($AH29:$AM29, AX$9:AX$14)/$AX$15)</f>
-        <v>0.34629629629629627</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="128">
         <f t="array" ref="AZ29">IF($AY$15=0,0,MMULT($AH29:$AM29, AY$9:AY$14)/$AY$15)</f>
@@ -25647,51 +25541,51 @@
         <v>0</v>
       </c>
       <c r="AB30" s="204">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="AC30" s="205">
+        <f t="shared" si="9"/>
+        <v>11.5</v>
+      </c>
+      <c r="AD30" s="205">
+        <f t="shared" si="10"/>
+        <v>6.2</v>
+      </c>
+      <c r="AE30" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="208">
+        <f t="shared" si="14"/>
+        <v>0.32692307692307693</v>
+      </c>
+      <c r="AI30" s="209">
+        <f t="shared" si="15"/>
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="AJ30" s="209">
         <f t="shared" si="7"/>
-        <v>8.5</v>
-      </c>
-      <c r="AC30" s="205">
-        <f t="shared" si="8"/>
-        <v>11.5</v>
-      </c>
-      <c r="AD30" s="205">
-        <f t="shared" si="9"/>
-        <v>6.2</v>
-      </c>
-      <c r="AE30" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="208">
-        <f t="shared" si="13"/>
-        <v>0.32692307692307693</v>
-      </c>
-      <c r="AI30" s="209">
-        <f t="shared" si="14"/>
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="AJ30" s="209">
-        <f t="shared" si="6"/>
         <v>0.22962962962962963</v>
       </c>
       <c r="AK30" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL30" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM30" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN30" s="215">
@@ -25729,15 +25623,15 @@
       </c>
       <c r="AW30" s="128">
         <f t="array" ref="AW30">IF($AV$15=0,0,MMULT($AH30:$AM30, AV$9:AV$14)/$AV$15)</f>
-        <v>0.22962962962962963</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="128">
         <f t="array" ref="AX30">IF($AW$15=0,0,MMULT($AH30:$AM30, AW$9:AW$14)/$AW$15)</f>
-        <v>0.27827635327635325</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="128">
         <f t="array" ref="AY30">IF($AX$15=0,0,MMULT($AH30:$AM30, AX$9:AX$14)/$AX$15)</f>
-        <v>0.22962962962962963</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="128">
         <f t="array" ref="AZ30">IF($AY$15=0,0,MMULT($AH30:$AM30, AY$9:AY$14)/$AY$15)</f>
@@ -25901,51 +25795,51 @@
         <v>0</v>
       </c>
       <c r="AB31" s="204">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AC31" s="205">
+        <f t="shared" si="9"/>
+        <v>11.6</v>
+      </c>
+      <c r="AD31" s="205">
+        <f t="shared" si="10"/>
+        <v>15.2</v>
+      </c>
+      <c r="AE31" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="208">
+        <f t="shared" si="14"/>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="AI31" s="209">
+        <f t="shared" si="15"/>
+        <v>0.42962962962962964</v>
+      </c>
+      <c r="AJ31" s="209">
         <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="AC31" s="205">
-        <f t="shared" si="8"/>
-        <v>11.6</v>
-      </c>
-      <c r="AD31" s="205">
-        <f t="shared" si="9"/>
-        <v>15.2</v>
-      </c>
-      <c r="AE31" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="208">
-        <f t="shared" si="13"/>
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="AI31" s="209">
-        <f t="shared" si="14"/>
-        <v>0.42962962962962964</v>
-      </c>
-      <c r="AJ31" s="209">
-        <f t="shared" si="6"/>
         <v>0.56296296296296289</v>
       </c>
       <c r="AK31" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL31" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM31" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN31" s="215">
@@ -25983,15 +25877,15 @@
       </c>
       <c r="AW31" s="128">
         <f t="array" ref="AW31">IF($AV$15=0,0,MMULT($AH31:$AM31, AV$9:AV$14)/$AV$15)</f>
-        <v>0.56296296296296289</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="128">
         <f t="array" ref="AX31">IF($AW$15=0,0,MMULT($AH31:$AM31, AW$9:AW$14)/$AW$15)</f>
-        <v>0.6853276353276353</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="128">
         <f t="array" ref="AY31">IF($AX$15=0,0,MMULT($AH31:$AM31, AX$9:AX$14)/$AX$15)</f>
-        <v>0.56296296296296289</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="128">
         <f t="array" ref="AZ31">IF($AY$15=0,0,MMULT($AH31:$AM31, AY$9:AY$14)/$AY$15)</f>
@@ -26035,7 +25929,7 @@
       </c>
       <c r="BJ31" s="129">
         <f>IF(OR(GradeSheet!$M20="W (Withdrawn)", GradeSheet!$M20="I (Incomplete)"), 0, IF(AX31&gt;=65%, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK31" s="129">
         <f>IF(OR(GradeSheet!$M20="W (Withdrawn)", GradeSheet!$M20="I (Incomplete)"), 0, IF(AY31&gt;=65%, 1, 0))</f>
@@ -26155,51 +26049,51 @@
         <v>0</v>
       </c>
       <c r="AB32" s="204">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="209">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="209">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="205">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="209">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="209">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AK32" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL32" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM32" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN32" s="215">
@@ -26397,7 +26291,7 @@
         <v>0.8</v>
       </c>
       <c r="X33" s="236">
-        <v>3.5999999999999996</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="Y33" s="236">
         <v>0</v>
@@ -26409,51 +26303,51 @@
         <v>0</v>
       </c>
       <c r="AB33" s="204">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC33" s="205">
+        <f t="shared" si="9"/>
+        <v>5.3</v>
+      </c>
+      <c r="AD33" s="205">
+        <f t="shared" si="10"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE33" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="208">
+        <f t="shared" si="14"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AI33" s="209">
+        <f t="shared" si="15"/>
+        <v>0.1962962962962963</v>
+      </c>
+      <c r="AJ33" s="209">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AC33" s="205">
-        <f t="shared" si="8"/>
-        <v>5.3</v>
-      </c>
-      <c r="AD33" s="205">
-        <f t="shared" si="9"/>
-        <v>8.6</v>
-      </c>
-      <c r="AE33" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="208">
-        <f t="shared" si="13"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AI33" s="209">
-        <f t="shared" si="14"/>
-        <v>0.1962962962962963</v>
-      </c>
-      <c r="AJ33" s="209">
-        <f t="shared" si="6"/>
-        <v>0.31851851851851848</v>
+        <v>0.34074074074074073</v>
       </c>
       <c r="AK33" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL33" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM33" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN33" s="215">
@@ -26483,23 +26377,23 @@
       <c r="AT33" s="125"/>
       <c r="AU33" s="210">
         <f t="array" ref="AU33">IF($AT$15=0,0,MMULT($AH33:$AM33, AT$9:AT$14)/$AT$15)</f>
-        <v>0.29981006647673314</v>
+        <v>0.30721747388414061</v>
       </c>
       <c r="AV33" s="128">
         <f t="array" ref="AV33">IF($AU$15=0,0,MMULT($AH33:$AM33, AU$9:AU$14)/$AU$15)</f>
-        <v>0.25740740740740742</v>
+        <v>0.26851851851851849</v>
       </c>
       <c r="AW33" s="128">
         <f t="array" ref="AW33">IF($AV$15=0,0,MMULT($AH33:$AM33, AV$9:AV$14)/$AV$15)</f>
-        <v>0.31851851851851848</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="128">
         <f t="array" ref="AX33">IF($AW$15=0,0,MMULT($AH33:$AM33, AW$9:AW$14)/$AW$15)</f>
-        <v>0.35156695156695156</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="128">
         <f t="array" ref="AY33">IF($AX$15=0,0,MMULT($AH33:$AM33, AX$9:AX$14)/$AX$15)</f>
-        <v>0.31851851851851848</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="128">
         <f t="array" ref="AZ33">IF($AY$15=0,0,MMULT($AH33:$AM33, AY$9:AY$14)/$AY$15)</f>
@@ -26663,51 +26557,51 @@
         <v>0</v>
       </c>
       <c r="AB34" s="204">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="205">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="209">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="209">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="205">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="205">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="208">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="209">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="209">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AK34" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL34" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM34" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN34" s="215">
@@ -26917,51 +26811,51 @@
         <v>0</v>
       </c>
       <c r="AB35" s="204">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AC35" s="205">
+        <f t="shared" si="9"/>
+        <v>10.7</v>
+      </c>
+      <c r="AD35" s="205">
+        <f t="shared" si="10"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AE35" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="208">
+        <f t="shared" si="14"/>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="AI35" s="209">
+        <f t="shared" si="15"/>
+        <v>0.39629629629629626</v>
+      </c>
+      <c r="AJ35" s="209">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="AC35" s="205">
-        <f t="shared" si="8"/>
-        <v>10.7</v>
-      </c>
-      <c r="AD35" s="205">
-        <f t="shared" si="9"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AE35" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="208">
-        <f t="shared" si="13"/>
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="AI35" s="209">
-        <f t="shared" si="14"/>
-        <v>0.39629629629629626</v>
-      </c>
-      <c r="AJ35" s="209">
-        <f t="shared" si="6"/>
         <v>0.71851851851851845</v>
       </c>
       <c r="AK35" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL35" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM35" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN35" s="215">
@@ -26999,15 +26893,15 @@
       </c>
       <c r="AW35" s="128">
         <f t="array" ref="AW35">IF($AV$15=0,0,MMULT($AH35:$AM35, AV$9:AV$14)/$AV$15)</f>
-        <v>0.71851851851851845</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="128">
         <f t="array" ref="AX35">IF($AW$15=0,0,MMULT($AH35:$AM35, AW$9:AW$14)/$AW$15)</f>
-        <v>0.64772079772079771</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="128">
         <f t="array" ref="AY35">IF($AX$15=0,0,MMULT($AH35:$AM35, AX$9:AX$14)/$AX$15)</f>
-        <v>0.71851851851851845</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="128">
         <f t="array" ref="AZ35">IF($AY$15=0,0,MMULT($AH35:$AM35, AY$9:AY$14)/$AY$15)</f>
@@ -27047,7 +26941,7 @@
       </c>
       <c r="BI35" s="129">
         <f>IF(OR(GradeSheet!$M24="W (Withdrawn)", GradeSheet!$M24="I (Incomplete)"), 0, IF(AW35&gt;=65%, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ35" s="129">
         <f>IF(OR(GradeSheet!$M24="W (Withdrawn)", GradeSheet!$M24="I (Incomplete)"), 0, IF(AX35&gt;=65%, 1, 0))</f>
@@ -27055,7 +26949,7 @@
       </c>
       <c r="BK35" s="129">
         <f>IF(OR(GradeSheet!$M24="W (Withdrawn)", GradeSheet!$M24="I (Incomplete)"), 0, IF(AY35&gt;=65%, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="129">
         <f>IF(OR(GradeSheet!$M24="W (Withdrawn)", GradeSheet!$M24="I (Incomplete)"), 0, IF(AZ35&gt;=65%, 1, 0))</f>
@@ -27171,51 +27065,51 @@
         <v>0</v>
       </c>
       <c r="AB36" s="204">
+        <f t="shared" si="8"/>
+        <v>15.5</v>
+      </c>
+      <c r="AC36" s="205">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="AD36" s="205">
+        <f t="shared" si="10"/>
+        <v>22.8</v>
+      </c>
+      <c r="AE36" s="205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="208">
+        <f t="shared" si="14"/>
+        <v>0.59615384615384615</v>
+      </c>
+      <c r="AI36" s="209">
+        <f t="shared" si="15"/>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="AJ36" s="209">
         <f t="shared" si="7"/>
-        <v>15.5</v>
-      </c>
-      <c r="AC36" s="205">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="AD36" s="205">
-        <f t="shared" si="9"/>
-        <v>22.8</v>
-      </c>
-      <c r="AE36" s="205">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="206">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="208">
-        <f t="shared" si="13"/>
-        <v>0.59615384615384615</v>
-      </c>
-      <c r="AI36" s="209">
-        <f t="shared" si="14"/>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="AJ36" s="209">
-        <f t="shared" si="6"/>
         <v>0.84444444444444444</v>
       </c>
       <c r="AK36" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL36" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM36" s="209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN36" s="215">
@@ -27253,15 +27147,15 @@
       </c>
       <c r="AW36" s="128">
         <f t="array" ref="AW36">IF($AV$15=0,0,MMULT($AH36:$AM36, AV$9:AV$14)/$AV$15)</f>
-        <v>0.84444444444444444</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="128">
         <f t="array" ref="AX36">IF($AW$15=0,0,MMULT($AH36:$AM36, AW$9:AW$14)/$AW$15)</f>
-        <v>0.72029914529914529</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="128">
         <f t="array" ref="AY36">IF($AX$15=0,0,MMULT($AH36:$AM36, AX$9:AX$14)/$AX$15)</f>
-        <v>0.84444444444444444</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="128">
         <f t="array" ref="AZ36">IF($AY$15=0,0,MMULT($AH36:$AM36, AY$9:AY$14)/$AY$15)</f>
@@ -27301,15 +27195,15 @@
       </c>
       <c r="BI36" s="129">
         <f>IF(OR(GradeSheet!$M25="W (Withdrawn)", GradeSheet!$M25="I (Incomplete)"), 0, IF(AW36&gt;=65%, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ36" s="129">
         <f>IF(OR(GradeSheet!$M25="W (Withdrawn)", GradeSheet!$M25="I (Incomplete)"), 0, IF(AX36&gt;=65%, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK36" s="129">
         <f>IF(OR(GradeSheet!$M25="W (Withdrawn)", GradeSheet!$M25="I (Incomplete)"), 0, IF(AY36&gt;=65%, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="129">
         <f>IF(OR(GradeSheet!$M25="W (Withdrawn)", GradeSheet!$M25="I (Incomplete)"), 0, IF(AZ36&gt;=65%, 1, 0))</f>
@@ -27426,123 +27320,123 @@
       </c>
       <c r="C38" s="267"/>
       <c r="D38" s="119">
-        <f t="shared" ref="D38:AG38" si="15">AVERAGE(D21:D36)</f>
+        <f t="shared" ref="D38:AG38" si="16">AVERAGE(D21:D36)</f>
         <v>2.4375</v>
       </c>
       <c r="E38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.125</v>
       </c>
       <c r="F38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.375</v>
       </c>
       <c r="G38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.28125</v>
       </c>
       <c r="K38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5625</v>
       </c>
       <c r="L38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.09375</v>
       </c>
       <c r="M38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.58750000000000002</v>
       </c>
       <c r="X38" s="120">
-        <f t="shared" si="15"/>
-        <v>1.8843749999999997</v>
+        <f t="shared" si="16"/>
+        <v>1.9218749999999998</v>
       </c>
       <c r="Y38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA38" s="120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.71875</v>
       </c>
       <c r="AC38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.2749999999999995</v>
       </c>
       <c r="AD38" s="119">
-        <f t="shared" si="15"/>
-        <v>7.3531249999999995</v>
+        <f t="shared" si="16"/>
+        <v>7.3906250000000009</v>
       </c>
       <c r="AE38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG38" s="119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH38" s="56">
@@ -27555,7 +27449,7 @@
       </c>
       <c r="AJ38" s="56">
         <f>(SUMIFS(AJ21:AJ36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
-        <v>0.27233796296296292</v>
+        <v>0.2737268518518518</v>
       </c>
       <c r="AK38" s="56">
         <f>(SUMIFS(AK21:AK36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
@@ -27570,49 +27464,49 @@
         <v>0</v>
       </c>
       <c r="AN38" s="52">
-        <f t="shared" ref="AN38:AS38" si="16">SUM(AN21:AN36)</f>
+        <f t="shared" ref="AN38:AS38" si="17">SUM(AN21:AN36)</f>
         <v>2</v>
       </c>
       <c r="AO38" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP38" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AQ38" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR38" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS38" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT38" s="51"/>
       <c r="AU38" s="56">
         <f>(SUMIFS(AU21:AU36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
-        <v>0.27955246913580251</v>
+        <v>0.28001543209876545</v>
       </c>
       <c r="AV38" s="56">
         <f>(SUMIFS(AV21:AV36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
-        <v>0.27089120370370368</v>
+        <v>0.27158564814814812</v>
       </c>
       <c r="AW38" s="56">
         <f>(SUMIFS(AW21:AW36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
-        <v>0.27233796296296292</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="56">
         <f>(SUMIFS(AX21:AX36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
-        <v>0.28460648148148149</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="56">
         <f>(SUMIFS(AY21:AY36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
-        <v>0.27233796296296292</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="56">
         <f>(SUMIFS(AZ21:AZ36,GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;W (Withdrawn)",GradeSheet!$M$10:'GradeSheet'!$M$25,"&lt;&gt;I (Incomplete)"))/($A$38-GradeSheet!$H$39-GradeSheet!$H$40)</f>
@@ -27643,51 +27537,51 @@
         <v>0</v>
       </c>
       <c r="BG38" s="52">
-        <f t="shared" ref="BG38:BR38" si="17">SUM(BG21:BG36)</f>
+        <f t="shared" ref="BG38:BR38" si="18">SUM(BG21:BG36)</f>
         <v>1</v>
       </c>
       <c r="BH38" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BI38" s="52">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BJ38" s="52">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BK38" s="53">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="BL38" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BM38" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BN38" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BO38" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BP38" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BQ38" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BR38" s="121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -44384,39 +44278,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="AI40" sqref="AI40:AM40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.75" customWidth="1"/>
-    <col min="11" max="13" width="6.375" customWidth="1"/>
-    <col min="14" max="14" width="5.75" customWidth="1"/>
-    <col min="15" max="15" width="5.25" customWidth="1"/>
-    <col min="16" max="16" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="18" width="4.75" customWidth="1"/>
-    <col min="19" max="19" width="10.375" customWidth="1"/>
-    <col min="20" max="20" width="7.75" customWidth="1"/>
-    <col min="21" max="24" width="4.25" customWidth="1"/>
-    <col min="25" max="33" width="3.625" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="33" width="3.5703125" customWidth="1"/>
     <col min="34" max="34" width="1" customWidth="1"/>
-    <col min="35" max="38" width="3.625" customWidth="1"/>
-    <col min="39" max="39" width="6.75" customWidth="1"/>
-    <col min="40" max="46" width="3.625" customWidth="1"/>
+    <col min="35" max="38" width="3.5703125" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" customWidth="1"/>
+    <col min="40" max="46" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="16.5" customHeight="1">
@@ -45668,11 +45562,11 @@
       </c>
       <c r="J24" s="195">
         <f>GradeSheet!$H$37</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="195">
         <f>GradeSheet!$H$38</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L24" s="195">
         <f>GradeSheet!$H$39</f>
@@ -45760,11 +45654,11 @@
       </c>
       <c r="J25" s="91">
         <f>J24/GradeSheet!$H$41</f>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="K25" s="91">
         <f>K24/GradeSheet!$H$41</f>
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="L25" s="91">
         <f>L24/GradeSheet!$H$41</f>
@@ -46245,11 +46139,11 @@
       <c r="F33" s="250"/>
       <c r="G33" s="97">
         <f>SUM(B24:J24)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33" s="98">
         <f>G33/G30</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="I33" s="77"/>
       <c r="J33" s="287" t="s">
@@ -47675,7 +47569,7 @@
       </c>
       <c r="J60" s="91">
         <f>CO_PO_AttainmentAnalysis!$AJ$38</f>
-        <v>0.27233796296296292</v>
+        <v>0.2737268518518518</v>
       </c>
       <c r="K60" s="91">
         <f>CO_PO_AttainmentAnalysis!$AK$38</f>
@@ -58211,20 +58105,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="24" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="24" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="35.25" customHeight="1" thickBot="1">
@@ -58327,7 +58221,7 @@
       <c r="W3" s="82"/>
       <c r="X3" s="82"/>
     </row>
-    <row r="4" spans="1:24" thickBot="1">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1">
       <c r="A4" s="166" t="s">
         <v>54</v>
       </c>
@@ -58363,7 +58257,7 @@
       <c r="W4" s="82"/>
       <c r="X4" s="82"/>
     </row>
-    <row r="5" spans="1:24" thickBot="1">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1">
       <c r="A5" s="81"/>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -58389,7 +58283,7 @@
       <c r="W5" s="82"/>
       <c r="X5" s="82"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4">
+    <row r="6" spans="1:24" ht="16.5">
       <c r="A6" s="346" t="s">
         <v>115</v>
       </c>
@@ -58421,7 +58315,7 @@
       <c r="W6" s="82"/>
       <c r="X6" s="82"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4">
+    <row r="7" spans="1:24">
       <c r="A7" s="344" t="s">
         <v>19</v>
       </c>
@@ -58454,7 +58348,7 @@
       <c r="W7" s="82"/>
       <c r="X7" s="82"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4">
+    <row r="8" spans="1:24">
       <c r="A8" s="346" t="s">
         <v>23</v>
       </c>
@@ -58485,7 +58379,7 @@
       <c r="W8" s="82"/>
       <c r="X8" s="82"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4">
+    <row r="9" spans="1:24">
       <c r="A9" s="344" t="s">
         <v>26</v>
       </c>
@@ -58516,7 +58410,7 @@
       <c r="W9" s="82"/>
       <c r="X9" s="82"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4">
+    <row r="10" spans="1:24">
       <c r="A10" s="344" t="s">
         <v>27</v>
       </c>
@@ -58547,7 +58441,7 @@
       <c r="W10" s="82"/>
       <c r="X10" s="82"/>
     </row>
-    <row r="11" spans="1:24" thickBot="1">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="344" t="s">
         <v>28</v>
       </c>
@@ -58717,7 +58611,7 @@
       <c r="W16" s="82"/>
       <c r="X16" s="82"/>
     </row>
-    <row r="17" spans="1:24" ht="16.2">
+    <row r="17" spans="1:24" ht="16.5">
       <c r="A17" s="354" t="s">
         <v>162</v>
       </c>
@@ -58745,7 +58639,7 @@
       <c r="W17" s="82"/>
       <c r="X17" s="82"/>
     </row>
-    <row r="18" spans="1:24" ht="16.2">
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="354"/>
       <c r="B18" s="249"/>
       <c r="C18" s="249"/>
@@ -58771,7 +58665,7 @@
       <c r="W18" s="82"/>
       <c r="X18" s="82"/>
     </row>
-    <row r="19" spans="1:24" ht="16.2">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="101"/>
       <c r="B19" s="102"/>
       <c r="C19" s="102"/>
@@ -58797,7 +58691,7 @@
       <c r="W19" s="82"/>
       <c r="X19" s="82"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="354"/>
       <c r="B20" s="249"/>
       <c r="C20" s="249"/>
